--- a/medicine/Psychotrope/Le_Vin_de_la_Saint-Martin/Le_Vin_de_la_Saint-Martin.xlsx
+++ b/medicine/Psychotrope/Le_Vin_de_la_Saint-Martin/Le_Vin_de_la_Saint-Martin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Vin de la Saint-Martin est un tableau peint par Pieter Brueghel l'Ancien entre 1565 et 1568. Il est conservé au musée du Prado à Madrid.
 Il s'agit du plus haut et du plus large des tableaux conservés de l'artiste. Il montre les festivités de la Saint-Martin, jour pendant lequel on buvait le premier vin de l'année.
-On a longtemps cru que le tableau avait disparu jusqu'à ce que, début 2010, il soit apporté par un collectionneur privé au Musée du Prado pour y être restauré. Des recherches ont confirmé qu'il s'agissait bien du tableau de Bruegel[1].
-Auparavant on considérait un fragment conservé au Kunsthistorisches Museum de Vienne comme l'original[2]. 
-Aujourd'hui on a établi qu'il s'agit d'un reste d'une copie réalisée par son fils Pieter Brueghel le Jeune[3].
+On a longtemps cru que le tableau avait disparu jusqu'à ce que, début 2010, il soit apporté par un collectionneur privé au Musée du Prado pour y être restauré. Des recherches ont confirmé qu'il s'agissait bien du tableau de Bruegel.
+Auparavant on considérait un fragment conservé au Kunsthistorisches Museum de Vienne comme l'original. 
+Aujourd'hui on a établi qu'il s'agit d'un reste d'une copie réalisée par son fils Pieter Brueghel le Jeune.
 </t>
         </is>
       </c>
